--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduSyncdisk\药材表-检索小程序\GITHUB仓库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61E78F5-C4DB-4962-96D8-82898B83F631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487A57CC-95D3-47EA-9C75-582CFDCE1ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4885,13 +4885,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5178,7 +5178,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
